--- a/fds.xlsx
+++ b/fds.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Accidents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="junction road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="roundabout road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="junction road 1 lane" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,185 +526,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:43</t>
+          <t>2024-09-04 22:18:19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.31026124734669</v>
+        <v>40.69457234763475</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>34.14100594208163</v>
+        <v>36.92761950886995</v>
       </c>
       <c r="E2" t="n">
-        <v>35.04376920448547</v>
+        <v>44.04472565891756</v>
       </c>
       <c r="F2" t="n">
-        <v>35.14955554084656</v>
+        <v>41.31267300236903</v>
       </c>
       <c r="G2" t="n">
-        <v>48.89088118621002</v>
+        <v>46.13930585726649</v>
       </c>
       <c r="H2" t="n">
-        <v>48.32609436310977</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>35.04853771075074</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:45</t>
+          <t>2024-09-04 22:18:21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.05589144304304</v>
+        <v>42.01819914885814</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>46.22664225188863</v>
       </c>
       <c r="E3" t="n">
-        <v>35.04376920448547</v>
+        <v>46.82087758226477</v>
       </c>
       <c r="F3" t="n">
-        <v>35.14955554084656</v>
+        <v>38.97028711354534</v>
       </c>
       <c r="G3" t="n">
-        <v>47.07977309588431</v>
+        <v>40.93849708104931</v>
       </c>
       <c r="H3" t="n">
-        <v>50.70900158982082</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42.67625742760204</v>
+        <v>37.13469171554271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:48</t>
+          <t>2024-09-04 22:18:23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.09303555975904</v>
+        <v>41.85991349940407</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>47.65360795753885</v>
+        <v>44.40377690089309</v>
       </c>
       <c r="E4" t="n">
-        <v>35.02441146113506</v>
+        <v>46.77488628427315</v>
       </c>
       <c r="F4" t="n">
-        <v>42.54708536958024</v>
+        <v>38.89472473564992</v>
       </c>
       <c r="G4" t="n">
-        <v>37.22724613920366</v>
+        <v>40.93849708104931</v>
       </c>
       <c r="H4" t="n">
-        <v>44.45975002711928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47.24304136918697</v>
+        <v>37.01575079441035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:50</t>
+          <t>2024-09-04 22:18:25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.38345340460093</v>
+        <v>40.48818972867775</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>38.12288636603108</v>
+        <v>39.32991056898136</v>
       </c>
       <c r="E5" t="n">
-        <v>35.02898306228582</v>
+        <v>46.89928692901998</v>
       </c>
       <c r="F5" t="n">
-        <v>44.16105566817436</v>
+        <v>35.83334701939771</v>
       </c>
       <c r="G5" t="n">
-        <v>32.34951088926985</v>
+        <v>40.46000244599603</v>
       </c>
       <c r="H5" t="n">
-        <v>44.55220059554375</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46.99959685742326</v>
+        <v>39.91840167999364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:52</t>
+          <t>2024-09-04 22:18:27</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.23144219349217</v>
+        <v>38.55710956978571</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>43.69486994722409</v>
+        <v>40.82956741882055</v>
       </c>
       <c r="E6" t="n">
-        <v>38.62497706171988</v>
+        <v>46.31735398302852</v>
       </c>
       <c r="F6" t="n">
-        <v>43.62903058008931</v>
+        <v>34.73440277736026</v>
       </c>
       <c r="G6" t="n">
-        <v>32.28570903006152</v>
+        <v>26.55395214201599</v>
       </c>
       <c r="H6" t="n">
-        <v>44.33246289261082</v>
-      </c>
-      <c r="I6" t="n">
-        <v>46.29788790443162</v>
+        <v>40.39380547265446</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-04 21:51:54</t>
+          <t>2024-09-04 22:18:29</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.86357817658712</v>
+        <v>38.84233188146045</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>39.13379693594722</v>
+        <v>39.42618935237901</v>
       </c>
       <c r="E7" t="n">
-        <v>39.61569995857515</v>
+        <v>45.40534072538098</v>
       </c>
       <c r="F7" t="n">
-        <v>20.16272044982725</v>
+        <v>31.92705826009094</v>
       </c>
       <c r="G7" t="n">
-        <v>26.53144748077108</v>
+        <v>37.84267384153907</v>
       </c>
       <c r="H7" t="n">
-        <v>41.33123346118983</v>
-      </c>
-      <c r="I7" t="n">
-        <v>47.7677141449939</v>
+        <v>40.00627610562225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:18:31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35.82052633461808</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.92891931996527</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.46314786724101</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33.52094407689528</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.95519716437708</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43.19618539013668</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:18:33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>32.80853227385587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.42769167779964</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.81934004960006</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.96756985852084</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33.55887167348321</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40.37713134330645</v>
+      </c>
+      <c r="I9" t="n">
+        <v>49.56903704156728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:18:35</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32.06846485570212</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.0741854076139</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.26067630431092</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.73937326691303</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33.13144223689238</v>
+      </c>
+      <c r="H10" t="n">
+        <v>35.46919480152578</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49.56903704156728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Speed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 0)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:18:40</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>38.55867838805695</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.93416905114613</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.72211086340553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45.1306092691535</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39.38547470536853</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40.62102805121111</v>
       </c>
     </row>
   </sheetData>

--- a/fds.xlsx
+++ b/fds.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Accidents" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="roundabout road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="junction road 1 lane" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,348 +525,2554 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:19</t>
+          <t>2024-09-05 10:35:24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.69457234763475</v>
+        <v>40.92341691641334</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>36.92761950886995</v>
+        <v>37.59180597038049</v>
       </c>
       <c r="E2" t="n">
-        <v>44.04472565891756</v>
+        <v>46.69878617253559</v>
       </c>
       <c r="F2" t="n">
-        <v>41.31267300236903</v>
+        <v>42.67622802500223</v>
       </c>
       <c r="G2" t="n">
-        <v>46.13930585726649</v>
+        <v>41.22364270383868</v>
       </c>
       <c r="H2" t="n">
-        <v>35.04853771075074</v>
-      </c>
+        <v>36.42662171030969</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:21</t>
+          <t>2024-09-05 10:35:26</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.01819914885814</v>
+        <v>43.64677745727867</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>46.22664225188863</v>
+        <v>44.89226099990324</v>
       </c>
       <c r="E3" t="n">
-        <v>46.82087758226477</v>
+        <v>45.79651287188057</v>
       </c>
       <c r="F3" t="n">
-        <v>38.97028711354534</v>
+        <v>42.87480603831836</v>
       </c>
       <c r="G3" t="n">
-        <v>40.93849708104931</v>
+        <v>47.51944098570667</v>
       </c>
       <c r="H3" t="n">
-        <v>37.13469171554271</v>
-      </c>
+        <v>37.15086639058448</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:23</t>
+          <t>2024-09-05 10:35:28</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.85991349940407</v>
+        <v>42.8604047811516</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>44.40377690089309</v>
+        <v>40.70951821848055</v>
       </c>
       <c r="E4" t="n">
-        <v>46.77488628427315</v>
+        <v>45.80274187890461</v>
       </c>
       <c r="F4" t="n">
-        <v>38.89472473564992</v>
+        <v>42.76604429774498</v>
       </c>
       <c r="G4" t="n">
-        <v>40.93849708104931</v>
+        <v>47.87059778029263</v>
       </c>
       <c r="H4" t="n">
-        <v>37.01575079441035</v>
-      </c>
+        <v>37.15312173033523</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:25</t>
+          <t>2024-09-05 10:35:30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.48818972867775</v>
+        <v>44.23782412028715</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>39.32991056898136</v>
+        <v>38.11120647155673</v>
       </c>
       <c r="E5" t="n">
-        <v>46.89928692901998</v>
+        <v>49.73851991112604</v>
       </c>
       <c r="F5" t="n">
-        <v>35.83334701939771</v>
+        <v>42.42929099061876</v>
       </c>
       <c r="G5" t="n">
-        <v>40.46000244599603</v>
+        <v>49.6824082273673</v>
       </c>
       <c r="H5" t="n">
-        <v>39.91840167999364</v>
-      </c>
+        <v>41.22769500076691</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:27</t>
+          <t>2024-09-05 10:35:32</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.55710956978571</v>
+        <v>44.85249385291644</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>40.82956741882055</v>
+        <v>41.40378127530959</v>
       </c>
       <c r="E6" t="n">
-        <v>46.31735398302852</v>
+        <v>48.79028014891303</v>
       </c>
       <c r="F6" t="n">
-        <v>34.73440277736026</v>
+        <v>41.95467504788953</v>
       </c>
       <c r="G6" t="n">
-        <v>26.55395214201599</v>
+        <v>47.91023723266457</v>
       </c>
       <c r="H6" t="n">
-        <v>40.39380547265446</v>
+        <v>42.27737958888246</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46.21042635397493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:29</t>
+          <t>2024-09-05 10:35:34</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.84233188146045</v>
+        <v>39.44065578575857</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>39.42618935237901</v>
+        <v>43.5334347551833</v>
       </c>
       <c r="E7" t="n">
-        <v>45.40534072538098</v>
+        <v>42.9985394061526</v>
       </c>
       <c r="F7" t="n">
-        <v>31.92705826009094</v>
+        <v>41.44924208406756</v>
       </c>
       <c r="G7" t="n">
-        <v>37.84267384153907</v>
+        <v>26.59044771479765</v>
       </c>
       <c r="H7" t="n">
-        <v>40.00627610562225</v>
+        <v>41.98666687487218</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42.77694145791011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:31</t>
+          <t>2024-09-05 10:35:36</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.82052633461808</v>
+        <v>32.43006008425508</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>32.92891931996527</v>
+        <v>39.892775387483</v>
       </c>
       <c r="E8" t="n">
-        <v>27.46314786724101</v>
+        <v>36.88038165482079</v>
       </c>
       <c r="F8" t="n">
-        <v>33.52094407689528</v>
+        <v>30.56518840461541</v>
       </c>
       <c r="G8" t="n">
-        <v>40.95519716437708</v>
+        <v>19.1621833521225</v>
       </c>
       <c r="H8" t="n">
-        <v>43.19618539013668</v>
+        <v>33.51062154548767</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44.30821473952822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:33</t>
+          <t>2024-09-05 10:35:38</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.80853227385587</v>
+        <v>33.18187390915858</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>23.42769167779964</v>
+        <v>27.18908297674959</v>
       </c>
       <c r="E9" t="n">
-        <v>26.81934004960006</v>
+        <v>31.5985603488894</v>
       </c>
       <c r="F9" t="n">
-        <v>32.96756985852084</v>
+        <v>25.55257892448582</v>
       </c>
       <c r="G9" t="n">
-        <v>33.55887167348321</v>
+        <v>33.73706828042433</v>
       </c>
       <c r="H9" t="n">
-        <v>40.37713134330645</v>
+        <v>37.84098211900353</v>
       </c>
       <c r="I9" t="n">
-        <v>49.56903704156728</v>
+        <v>45.83850811461966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09-04 22:18:35</t>
+          <t>2024-09-05 10:35:40</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.06846485570212</v>
+        <v>33.20829720774886</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0741854076139</v>
+        <v>40.69883110159106</v>
       </c>
       <c r="E10" t="n">
-        <v>25.26067630431092</v>
+        <v>26.53026873932217</v>
       </c>
       <c r="F10" t="n">
-        <v>32.73937326691303</v>
+        <v>41.63501263205762</v>
       </c>
       <c r="G10" t="n">
-        <v>33.13144223689238</v>
+        <v>30.47440233424743</v>
       </c>
       <c r="H10" t="n">
-        <v>35.46919480152578</v>
+        <v>24.79160886251889</v>
       </c>
       <c r="I10" t="n">
-        <v>49.56903704156728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Stamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average Speed</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 0, Direction 0)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 0, Direction 1)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 0)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 1)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-09-04 22:18:40</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>38.55867838805695</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.93416905114613</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38.72211086340553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45.1306092691535</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39.38547470536853</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40.62102805121111</v>
+        <v>45.74825700062098</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:42</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.62900319158311</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.99448230105475</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.27345446187963</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40.31916250179475</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.149797780257</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.09562806215294</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45.60304380696747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:44</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27.22348043768658</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.62719606796354</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.56418370017994</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27.05096530835415</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.88302932781638</v>
+      </c>
+      <c r="H12" t="n">
+        <v>31.88712284847248</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45.23763740905537</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:46</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>29.20478828325596</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23.4736124388569</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.76003707222041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>31.48225470460697</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24.57674857068435</v>
+      </c>
+      <c r="H13" t="n">
+        <v>38.60052444073683</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45.00199395779581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:48</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>28.75394786405742</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27.25973489179633</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27.4115439537194</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.46346037019967</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.92387210051719</v>
+      </c>
+      <c r="H14" t="n">
+        <v>32.87674456182998</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44.26982793560509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:50</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>27.63153420809705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.8595992448605</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27.19554031142863</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30.58181204534207</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25.69744433472195</v>
+      </c>
+      <c r="H15" t="n">
+        <v>32.82380309904985</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49.7391455436391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:52</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>33.8619538095521</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.89766167657576</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.71090928243341</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.12654159673905</v>
+      </c>
+      <c r="G16" t="n">
+        <v>37.74711703745593</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32.20289401509974</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:54</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.54767723328418</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30.26918781104672</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25.93317825451343</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40.45869933803185</v>
+      </c>
+      <c r="G17" t="n">
+        <v>39.94969653948619</v>
+      </c>
+      <c r="H17" t="n">
+        <v>37.19845078086559</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:56</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>27.78470764389827</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19.17393902415121</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.84258874647723</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38.43207557295561</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31.21354705742671</v>
+      </c>
+      <c r="H18" t="n">
+        <v>33.78598754305722</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:35:58</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>30.51179460791739</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22.33688225651914</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.6691540276582</v>
+      </c>
+      <c r="F19" t="n">
+        <v>34.47452277465948</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32.51906329255475</v>
+      </c>
+      <c r="H19" t="n">
+        <v>40.41423458783394</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32.85523496573022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>36</v>
+      </c>
+      <c r="D20" t="n">
+        <v>35.71604443913344</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.34695635004057</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36.76384675751029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>38.19237576420596</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.99403898847255</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23.33060174143216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:02</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>31.05941221645548</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" t="n">
+        <v>22.78435287023116</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27.19687537110428</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36.70636835353988</v>
+      </c>
+      <c r="G21" t="n">
+        <v>37.52526999174354</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30.48000999765698</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30.98122696348403</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:04</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26.63143203556339</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D22" t="n">
+        <v>22.21022834501685</v>
+      </c>
+      <c r="E22" t="n">
+        <v>21.68456280886516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>36.51039823112911</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23.46860267718853</v>
+      </c>
+      <c r="H22" t="n">
+        <v>29.65453807448338</v>
+      </c>
+      <c r="I22" t="n">
+        <v>38.51231116644134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24.70745898835156</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27.13780023570578</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17.97692758977083</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30.91355193421921</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23.18608198633075</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22.77933436459204</v>
+      </c>
+      <c r="I23" t="n">
+        <v>42.88730155436144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:08</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25.24729857574492</v>
+      </c>
+      <c r="C24" t="n">
+        <v>38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.29265233056349</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.26206839248331</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31.17729334675249</v>
+      </c>
+      <c r="G24" t="n">
+        <v>29.10813548934542</v>
+      </c>
+      <c r="H24" t="n">
+        <v>27.51930536950082</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42.52464727195078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:10</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22.88959187831665</v>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15.60721882263373</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.252485781757546</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.95744821511049</v>
+      </c>
+      <c r="G25" t="n">
+        <v>28.63103253421677</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23.72895271782933</v>
+      </c>
+      <c r="I25" t="n">
+        <v>42.20231399613053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22.30809837189628</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22.31977007798049</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.154441933123065</v>
+      </c>
+      <c r="F26" t="n">
+        <v>19.38357198378374</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24.39883738881377</v>
+      </c>
+      <c r="H26" t="n">
+        <v>31.23662082231984</v>
+      </c>
+      <c r="I26" t="n">
+        <v>39.52617052724521</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:14</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>23.75744897997871</v>
+      </c>
+      <c r="C27" t="n">
+        <v>39</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.73161475760182</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.69838121270654</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26.16804092501026</v>
+      </c>
+      <c r="G27" t="n">
+        <v>21.68118517296775</v>
+      </c>
+      <c r="H27" t="n">
+        <v>40.06343207861391</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39.36591066308733</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:16</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27.68804758188737</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30.62820495006715</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.91494431767017</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38.49122794460312</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23.53701456491142</v>
+      </c>
+      <c r="H28" t="n">
+        <v>33.35169862950877</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39.1976182019585</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:18</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>31.70588721131703</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36.74504976765737</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23.35433733664664</v>
+      </c>
+      <c r="F29" t="n">
+        <v>40.91957143410988</v>
+      </c>
+      <c r="G29" t="n">
+        <v>26.09250214547537</v>
+      </c>
+      <c r="H29" t="n">
+        <v>37.1562397699598</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39.43945120672804</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:20</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>30.12302855517571</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.05532843520922</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24.54925546227253</v>
+      </c>
+      <c r="F30" t="n">
+        <v>40.02332853029036</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24.28847669089122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>32.12028757076368</v>
+      </c>
+      <c r="I30" t="n">
+        <v>39.45483427884004</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:22</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30.51991035229112</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.81685027550635</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.78437451692327</v>
+      </c>
+      <c r="F31" t="n">
+        <v>40.87661981937013</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.50793298323193</v>
+      </c>
+      <c r="H31" t="n">
+        <v>35.15111253238857</v>
+      </c>
+      <c r="I31" t="n">
+        <v>39.6871430383884</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:24</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>32.11748460506522</v>
+      </c>
+      <c r="C32" t="n">
+        <v>42</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30.04601317592418</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29.61265065880072</v>
+      </c>
+      <c r="F32" t="n">
+        <v>34.74361686024047</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.21471331363835</v>
+      </c>
+      <c r="H32" t="n">
+        <v>39.48967671926835</v>
+      </c>
+      <c r="I32" t="n">
+        <v>39.67072451307082</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:26</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>29.90030549189335</v>
+      </c>
+      <c r="C33" t="n">
+        <v>40</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30.1357574328188</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27.63096360804222</v>
+      </c>
+      <c r="F33" t="n">
+        <v>34.16535105270069</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22.25146798750254</v>
+      </c>
+      <c r="H33" t="n">
+        <v>38.5659455701676</v>
+      </c>
+      <c r="I33" t="n">
+        <v>41.18703753529474</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:28</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>26.9385771783409</v>
+      </c>
+      <c r="C34" t="n">
+        <v>40</v>
+      </c>
+      <c r="D34" t="n">
+        <v>36.13585029231081</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18.08862502266367</v>
+      </c>
+      <c r="F34" t="n">
+        <v>28.26016903873147</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20.52649021034888</v>
+      </c>
+      <c r="H34" t="n">
+        <v>40.36202750656047</v>
+      </c>
+      <c r="I34" t="n">
+        <v>39.34718921160319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:30</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>25.84115625298976</v>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>31.54854204158597</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.05989709142167</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23.92998617667239</v>
+      </c>
+      <c r="G35" t="n">
+        <v>22.83062770982674</v>
+      </c>
+      <c r="H35" t="n">
+        <v>40.4994466276533</v>
+      </c>
+      <c r="I35" t="n">
+        <v>36.43671834995613</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:32</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>24.24614970037878</v>
+      </c>
+      <c r="C36" t="n">
+        <v>43</v>
+      </c>
+      <c r="D36" t="n">
+        <v>18.97923213798667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20.02225721130248</v>
+      </c>
+      <c r="F36" t="n">
+        <v>21.58546358214284</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25.48073053100999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>32.5947652033885</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36.47060881340012</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:34</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>25.19046369114802</v>
+      </c>
+      <c r="C37" t="n">
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21.51177920546713</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.80224798031173</v>
+      </c>
+      <c r="F37" t="n">
+        <v>31.12332941294151</v>
+      </c>
+      <c r="G37" t="n">
+        <v>26.28724863772531</v>
+      </c>
+      <c r="H37" t="n">
+        <v>36.08145073634446</v>
+      </c>
+      <c r="I37" t="n">
+        <v>36.42784588261411</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:36</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>23.15338203839651</v>
+      </c>
+      <c r="C38" t="n">
+        <v>42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.29567984744567</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.35735118936582</v>
+      </c>
+      <c r="F38" t="n">
+        <v>35.04980951204576</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24.07967907078426</v>
+      </c>
+      <c r="H38" t="n">
+        <v>24.11037345220447</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36.38743551444328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>23.13040297932899</v>
+      </c>
+      <c r="C39" t="n">
+        <v>42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.19791970417345</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.35702923876373</v>
+      </c>
+      <c r="F39" t="n">
+        <v>35.14841060764675</v>
+      </c>
+      <c r="G39" t="n">
+        <v>23.89751171948955</v>
+      </c>
+      <c r="H39" t="n">
+        <v>24.18413586463997</v>
+      </c>
+      <c r="I39" t="n">
+        <v>36.38623484536642</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:41</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>23.99483995704468</v>
+      </c>
+      <c r="C40" t="n">
+        <v>42</v>
+      </c>
+      <c r="D40" t="n">
+        <v>22.29844695419664</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13.65303450803118</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37.21885310471828</v>
+      </c>
+      <c r="G40" t="n">
+        <v>21.22179210285378</v>
+      </c>
+      <c r="H40" t="n">
+        <v>28.87985852712859</v>
+      </c>
+      <c r="I40" t="n">
+        <v>36.34348340898474</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:43</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>25.57407486247154</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>31.11289844129803</v>
+      </c>
+      <c r="E41" t="n">
+        <v>15.69409587506459</v>
+      </c>
+      <c r="F41" t="n">
+        <v>38.77326294449061</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20.45555246960344</v>
+      </c>
+      <c r="H41" t="n">
+        <v>31.43447149338288</v>
+      </c>
+      <c r="I41" t="n">
+        <v>36.28493305389754</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:45</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>28.4676712516248</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46</v>
+      </c>
+      <c r="D42" t="n">
+        <v>37.17892555026989</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20.62522362455489</v>
+      </c>
+      <c r="F42" t="n">
+        <v>38.96906794197486</v>
+      </c>
+      <c r="G42" t="n">
+        <v>26.75782561798146</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27.56598766951605</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34.43460470736785</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>28.96167379560631</v>
+      </c>
+      <c r="C43" t="n">
+        <v>47</v>
+      </c>
+      <c r="D43" t="n">
+        <v>37.03764184408185</v>
+      </c>
+      <c r="E43" t="n">
+        <v>22.44851364211029</v>
+      </c>
+      <c r="F43" t="n">
+        <v>39.0877187588811</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24.77504122097757</v>
+      </c>
+      <c r="H43" t="n">
+        <v>28.12961850781751</v>
+      </c>
+      <c r="I43" t="n">
+        <v>35.67847964102953</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:49</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>23.80331217627712</v>
+      </c>
+      <c r="C44" t="n">
+        <v>44</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.77276674489307</v>
+      </c>
+      <c r="E44" t="n">
+        <v>16.88542693509022</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31.3656927239993</v>
+      </c>
+      <c r="G44" t="n">
+        <v>19.77804339885747</v>
+      </c>
+      <c r="H44" t="n">
+        <v>29.85291704243705</v>
+      </c>
+      <c r="I44" t="n">
+        <v>38.3318380762787</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:51</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>25.27490581537857</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24.93411633564945</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20.15172153643078</v>
+      </c>
+      <c r="F45" t="n">
+        <v>29.42840780999679</v>
+      </c>
+      <c r="G45" t="n">
+        <v>18.54500534416304</v>
+      </c>
+      <c r="H45" t="n">
+        <v>36.60622744816097</v>
+      </c>
+      <c r="I45" t="n">
+        <v>38.3318380762787</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:53</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23.31438647278199</v>
+      </c>
+      <c r="C46" t="n">
+        <v>42</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.62706465781825</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17.210545851747</v>
+      </c>
+      <c r="F46" t="n">
+        <v>32.39492175721306</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13.38996748382353</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33.24767313582687</v>
+      </c>
+      <c r="I46" t="n">
+        <v>36.90187846289119</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:36:57</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>22.4277468151013</v>
+      </c>
+      <c r="C47" t="n">
+        <v>41</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.93100273643645</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19.26560754502508</v>
+      </c>
+      <c r="F47" t="n">
+        <v>26.99324091395028</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.0967451577592</v>
+      </c>
+      <c r="H47" t="n">
+        <v>34.53981073291382</v>
+      </c>
+      <c r="I47" t="n">
+        <v>36.90187846289119</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:00</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23.99965911542397</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.6154011371404</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.66527103393783</v>
+      </c>
+      <c r="F48" t="n">
+        <v>30.73589280966041</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14.71780225063484</v>
+      </c>
+      <c r="H48" t="n">
+        <v>39.02542492423191</v>
+      </c>
+      <c r="I48" t="n">
+        <v>36.90187846289119</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:02</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>22.29757176183937</v>
+      </c>
+      <c r="C49" t="n">
+        <v>43</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13.77658383106192</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16.78214205701783</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33.51095738380815</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11.78165530273473</v>
+      </c>
+      <c r="H49" t="n">
+        <v>40.9246347037941</v>
+      </c>
+      <c r="I49" t="n">
+        <v>36.90187846289119</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:04</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>19.8590459973256</v>
+      </c>
+      <c r="C50" t="n">
+        <v>42</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13.65035495721402</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7.778246763053123</v>
+      </c>
+      <c r="F50" t="n">
+        <v>38.45409032239622</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14.45221437901595</v>
+      </c>
+      <c r="H50" t="n">
+        <v>34.88002588556457</v>
+      </c>
+      <c r="I50" t="n">
+        <v>36.75507026401367</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:08</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20.31551517624298</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.64311540011868</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.758287389690428</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38.17079686357199</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.32413256266321</v>
+      </c>
+      <c r="H51" t="n">
+        <v>34.97346255728377</v>
+      </c>
+      <c r="I51" t="n">
+        <v>36.75279850544842</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:14</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>21.07618538778488</v>
+      </c>
+      <c r="C52" t="n">
+        <v>42</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.66156264165364</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.015390942058431</v>
+      </c>
+      <c r="F52" t="n">
+        <v>37.49935602151255</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18.24919267520595</v>
+      </c>
+      <c r="H52" t="n">
+        <v>34.91169376615572</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36.74993181036029</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:37:16</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22.4105031821938</v>
+      </c>
+      <c r="C53" t="n">
+        <v>40</v>
+      </c>
+      <c r="D53" t="n">
+        <v>18.12058343275646</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.5671122119701</v>
+      </c>
+      <c r="F53" t="n">
+        <v>41.82959726228614</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20.00940998249281</v>
+      </c>
+      <c r="H53" t="n">
+        <v>34.66416218211651</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36.74690909040018</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:09</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>24.38925329606099</v>
+      </c>
+      <c r="C54" t="n">
+        <v>40</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20.92810100185735</v>
+      </c>
+      <c r="E54" t="n">
+        <v>18.14790794966563</v>
+      </c>
+      <c r="F54" t="n">
+        <v>41.2018767758755</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20.48947278955984</v>
+      </c>
+      <c r="H54" t="n">
+        <v>34.18105366628332</v>
+      </c>
+      <c r="I54" t="n">
+        <v>36.73560957756273</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:11</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>26.53944529144745</v>
+      </c>
+      <c r="C55" t="n">
+        <v>43</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.22568299625109</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20.02595150332646</v>
+      </c>
+      <c r="F55" t="n">
+        <v>35.7496815891776</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26.10226635446126</v>
+      </c>
+      <c r="H55" t="n">
+        <v>27.7131238148465</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36.67629963872454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:13</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>26.80984702642324</v>
+      </c>
+      <c r="C56" t="n">
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>30.80060692059404</v>
+      </c>
+      <c r="E56" t="n">
+        <v>19.26013767049236</v>
+      </c>
+      <c r="F56" t="n">
+        <v>39.92260067603822</v>
+      </c>
+      <c r="G56" t="n">
+        <v>27.27674355391452</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22.85962865194485</v>
+      </c>
+      <c r="I56" t="n">
+        <v>36.6366635776919</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:15</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>28.12205017538472</v>
+      </c>
+      <c r="C57" t="n">
+        <v>42</v>
+      </c>
+      <c r="D57" t="n">
+        <v>28.19732571017973</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.75889770619293</v>
+      </c>
+      <c r="F57" t="n">
+        <v>40.06643373350679</v>
+      </c>
+      <c r="G57" t="n">
+        <v>29.67229937607567</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22.88749379655503</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39.4347771885928</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:17</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>32.38615764151289</v>
+      </c>
+      <c r="C58" t="n">
+        <v>41</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.81199893182939</v>
+      </c>
+      <c r="E58" t="n">
+        <v>25.71647718228062</v>
+      </c>
+      <c r="F58" t="n">
+        <v>40.30552585754782</v>
+      </c>
+      <c r="G58" t="n">
+        <v>34.08598825022337</v>
+      </c>
+      <c r="H58" t="n">
+        <v>30.33609264898391</v>
+      </c>
+      <c r="I58" t="n">
+        <v>45.4315770451299</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:20</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>32.64343980281045</v>
+      </c>
+      <c r="C59" t="n">
+        <v>41</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31.86426121785573</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25.38856861591344</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.59157124814426</v>
+      </c>
+      <c r="G59" t="n">
+        <v>36.37649204612268</v>
+      </c>
+      <c r="H59" t="n">
+        <v>38.61932557726259</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45.4315770451299</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:22</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>31.38348150294869</v>
+      </c>
+      <c r="C60" t="n">
+        <v>43</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32.84436191487971</v>
+      </c>
+      <c r="E60" t="n">
+        <v>21.50414151842637</v>
+      </c>
+      <c r="F60" t="n">
+        <v>26.04606146155038</v>
+      </c>
+      <c r="G60" t="n">
+        <v>37.47371093583912</v>
+      </c>
+      <c r="H60" t="n">
+        <v>36.64680475443326</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45.4315770451299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:24</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>29.91532481945082</v>
+      </c>
+      <c r="C61" t="n">
+        <v>43</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.2627887541585</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21.97707036100854</v>
+      </c>
+      <c r="F61" t="n">
+        <v>25.97094371586451</v>
+      </c>
+      <c r="G61" t="n">
+        <v>33.97622605197664</v>
+      </c>
+      <c r="H61" t="n">
+        <v>37.22959396902149</v>
+      </c>
+      <c r="I61" t="n">
+        <v>45.4315770451299</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:26</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>27.33581582495708</v>
+      </c>
+      <c r="C62" t="n">
+        <v>43</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.26644290483472</v>
+      </c>
+      <c r="E62" t="n">
+        <v>24.11123157687664</v>
+      </c>
+      <c r="F62" t="n">
+        <v>22.30843855004428</v>
+      </c>
+      <c r="G62" t="n">
+        <v>26.10372956861198</v>
+      </c>
+      <c r="H62" t="n">
+        <v>37.67272740408085</v>
+      </c>
+      <c r="I62" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:28</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>25.59122616859543</v>
+      </c>
+      <c r="C63" t="n">
+        <v>44</v>
+      </c>
+      <c r="D63" t="n">
+        <v>27.14121519554758</v>
+      </c>
+      <c r="E63" t="n">
+        <v>18.8814364064315</v>
+      </c>
+      <c r="F63" t="n">
+        <v>26.68078805463777</v>
+      </c>
+      <c r="G63" t="n">
+        <v>28.07100792139234</v>
+      </c>
+      <c r="H63" t="n">
+        <v>26.89788691684765</v>
+      </c>
+      <c r="I63" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:38:30</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>25.16476655128832</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.77094642594316</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.82793384467161</v>
+      </c>
+      <c r="F64" t="n">
+        <v>26.31415390851495</v>
+      </c>
+      <c r="G64" t="n">
+        <v>28.51672745800966</v>
+      </c>
+      <c r="H64" t="n">
+        <v>34.26161403954314</v>
+      </c>
+      <c r="I64" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:39:41</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>26.24339792650304</v>
+      </c>
+      <c r="C65" t="n">
+        <v>45</v>
+      </c>
+      <c r="D65" t="n">
+        <v>34.43944418482274</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.57836565850982</v>
+      </c>
+      <c r="F65" t="n">
+        <v>23.84036240353011</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25.14979899991595</v>
+      </c>
+      <c r="H65" t="n">
+        <v>40.81481551796509</v>
+      </c>
+      <c r="I65" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:47:12</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>26.31674002065672</v>
+      </c>
+      <c r="C66" t="n">
+        <v>45</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.44692119709048</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14.75672015215198</v>
+      </c>
+      <c r="F66" t="n">
+        <v>23.87519034772111</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25.19700491441128</v>
+      </c>
+      <c r="H66" t="n">
+        <v>40.8644046253076</v>
+      </c>
+      <c r="I66" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:47:28</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>26.38947693542734</v>
+      </c>
+      <c r="C67" t="n">
+        <v>45</v>
+      </c>
+      <c r="D67" t="n">
+        <v>34.45355413020695</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.94611482257858</v>
+      </c>
+      <c r="F67" t="n">
+        <v>23.89848272268476</v>
+      </c>
+      <c r="G67" t="n">
+        <v>25.24090531582568</v>
+      </c>
+      <c r="H67" t="n">
+        <v>40.90842848297837</v>
+      </c>
+      <c r="I67" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:20</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>26.46338591956519</v>
+      </c>
+      <c r="C68" t="n">
+        <v>45</v>
+      </c>
+      <c r="D68" t="n">
+        <v>35.0008286274559</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15.13580598636005</v>
+      </c>
+      <c r="F68" t="n">
+        <v>23.91946968274426</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25.28157693820242</v>
+      </c>
+      <c r="H68" t="n">
+        <v>41.40669258431202</v>
+      </c>
+      <c r="I68" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:22</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>28.32733867675787</v>
+      </c>
+      <c r="C69" t="n">
+        <v>44</v>
+      </c>
+      <c r="D69" t="n">
+        <v>42.30677399249616</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21.58010503285542</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25.06612242235619</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25.58832092218617</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31.48082476952278</v>
+      </c>
+      <c r="I69" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:24</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>26.17282490243963</v>
+      </c>
+      <c r="C70" t="n">
+        <v>42</v>
+      </c>
+      <c r="D70" t="n">
+        <v>40.51120065304948</v>
+      </c>
+      <c r="E70" t="n">
+        <v>18.0082311124405</v>
+      </c>
+      <c r="F70" t="n">
+        <v>30.9729376531764</v>
+      </c>
+      <c r="G70" t="n">
+        <v>22.24639927943538</v>
+      </c>
+      <c r="H70" t="n">
+        <v>24.59323065131914</v>
+      </c>
+      <c r="I70" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:26</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>25.50716343063035</v>
+      </c>
+      <c r="C71" t="n">
+        <v>46</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33.54133624590274</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20.42079958021267</v>
+      </c>
+      <c r="F71" t="n">
+        <v>29.60029433548068</v>
+      </c>
+      <c r="G71" t="n">
+        <v>23.78744648017835</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19.97857751897869</v>
+      </c>
+      <c r="I71" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:28</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25.05708783524469</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>32.337435322226</v>
+      </c>
+      <c r="E72" t="n">
+        <v>19.50446205392651</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28.85089354213841</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21.67713150799036</v>
+      </c>
+      <c r="H72" t="n">
+        <v>24.42172903217378</v>
+      </c>
+      <c r="I72" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:30</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>23.05495567132467</v>
+      </c>
+      <c r="C73" t="n">
+        <v>45</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28.85067215912186</v>
+      </c>
+      <c r="E73" t="n">
+        <v>17.18832930852927</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25.10654014357633</v>
+      </c>
+      <c r="G73" t="n">
+        <v>16.86065672576668</v>
+      </c>
+      <c r="H73" t="n">
+        <v>31.92856861601574</v>
+      </c>
+      <c r="I73" t="n">
+        <v>51.36739156526713</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:32</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>20.76268820507676</v>
+      </c>
+      <c r="C74" t="n">
+        <v>44</v>
+      </c>
+      <c r="D74" t="n">
+        <v>24.85192463209747</v>
+      </c>
+      <c r="E74" t="n">
+        <v>16.40852647523456</v>
+      </c>
+      <c r="F74" t="n">
+        <v>21.45323658464485</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16.80471373673854</v>
+      </c>
+      <c r="H74" t="n">
+        <v>31.03579118576629</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:34</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>20.5055654130436</v>
+      </c>
+      <c r="C75" t="n">
+        <v>45</v>
+      </c>
+      <c r="D75" t="n">
+        <v>22.3657884715262</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.0094540190768</v>
+      </c>
+      <c r="F75" t="n">
+        <v>29.61381776778234</v>
+      </c>
+      <c r="G75" t="n">
+        <v>17.74951629317368</v>
+      </c>
+      <c r="H75" t="n">
+        <v>24.11062856247584</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:36</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>19.1029525458383</v>
+      </c>
+      <c r="C76" t="n">
+        <v>45</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19.28506304551416</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8.493942303756343</v>
+      </c>
+      <c r="F76" t="n">
+        <v>32.93732782535546</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20.16787020904598</v>
+      </c>
+      <c r="H76" t="n">
+        <v>13.26130544350196</v>
+      </c>
+      <c r="I76" t="n">
+        <v>43.26201609231363</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:38</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>17.64383051736885</v>
+      </c>
+      <c r="C77" t="n">
+        <v>45</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23.59304241925593</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.374012736679688</v>
+      </c>
+      <c r="F77" t="n">
+        <v>30.41240002632146</v>
+      </c>
+      <c r="G77" t="n">
+        <v>13.62272179603922</v>
+      </c>
+      <c r="H77" t="n">
+        <v>19.96531537285306</v>
+      </c>
+      <c r="I77" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:48:54</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>17.08028388834603</v>
+      </c>
+      <c r="C78" t="n">
+        <v>44</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13.7161980125665</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.827346248525291</v>
+      </c>
+      <c r="F78" t="n">
+        <v>29.38369805835464</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16.38899863788637</v>
+      </c>
+      <c r="H78" t="n">
+        <v>19.11528796726395</v>
+      </c>
+      <c r="I78" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:53:58</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>17.01391544885112</v>
+      </c>
+      <c r="C79" t="n">
+        <v>44</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.1761980123367</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.87045555636456</v>
+      </c>
+      <c r="F79" t="n">
+        <v>29.29858009140346</v>
+      </c>
+      <c r="G79" t="n">
+        <v>16.48012630994963</v>
+      </c>
+      <c r="H79" t="n">
+        <v>18.89902143568344</v>
+      </c>
+      <c r="I79" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:55:02</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>16.96100211435115</v>
+      </c>
+      <c r="C80" t="n">
+        <v>44</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12.63619801210887</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.965785440790696</v>
+      </c>
+      <c r="F80" t="n">
+        <v>29.2103420836142</v>
+      </c>
+      <c r="G80" t="n">
+        <v>16.57120927353775</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18.68189059860248</v>
+      </c>
+      <c r="I80" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:01:12</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>16.90689392286522</v>
+      </c>
+      <c r="C81" t="n">
+        <v>44</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12.09619801188298</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.060053639955449</v>
+      </c>
+      <c r="F81" t="n">
+        <v>29.11917324180003</v>
+      </c>
+      <c r="G81" t="n">
+        <v>16.66189241031678</v>
+      </c>
+      <c r="H81" t="n">
+        <v>18.4634657782173</v>
+      </c>
+      <c r="I81" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:01:14</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>15.84025395112735</v>
+      </c>
+      <c r="C82" t="n">
+        <v>43</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.43161657843365</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9.024061832121124</v>
+      </c>
+      <c r="F82" t="n">
+        <v>21.50885992684696</v>
+      </c>
+      <c r="G82" t="n">
+        <v>16.85438063888399</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15.93194682333361</v>
+      </c>
+      <c r="I82" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:01:16</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>17.01525131684766</v>
+      </c>
+      <c r="C83" t="n">
+        <v>42</v>
+      </c>
+      <c r="D83" t="n">
+        <v>17.12709491977049</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.08858527751942</v>
+      </c>
+      <c r="F83" t="n">
+        <v>31.86932316778698</v>
+      </c>
+      <c r="G83" t="n">
+        <v>13.25685152425673</v>
+      </c>
+      <c r="H83" t="n">
+        <v>15.81435583758625</v>
+      </c>
+      <c r="I83" t="n">
+        <v>48.20026074186647</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:01:18</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>19.98003235140245</v>
+      </c>
+      <c r="C84" t="n">
+        <v>43</v>
+      </c>
+      <c r="D84" t="n">
+        <v>17.12709491584555</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15.76966612799237</v>
+      </c>
+      <c r="F84" t="n">
+        <v>41.19210288501346</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12.47243969903668</v>
+      </c>
+      <c r="H84" t="n">
+        <v>18.55287272810781</v>
+      </c>
+      <c r="I84" t="n">
+        <v>48.20026074186647</v>
       </c>
     </row>
   </sheetData>
